--- a/Code/Results/Cases/Case_1_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7334935455090488</v>
+        <v>0.6826774943282885</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03083795207118811</v>
+        <v>0.09158574049555668</v>
       </c>
       <c r="E2">
-        <v>0.04801328218356637</v>
+        <v>0.1253963583736044</v>
       </c>
       <c r="F2">
-        <v>1.248487278602909</v>
+        <v>2.234179487570046</v>
       </c>
       <c r="G2">
-        <v>1.014746958048661</v>
+        <v>1.572035072809442</v>
       </c>
       <c r="H2">
-        <v>0.6986556024236847</v>
+        <v>1.417889399802348</v>
       </c>
       <c r="I2">
-        <v>0.716140435666798</v>
+        <v>1.483147664041056</v>
       </c>
       <c r="J2">
-        <v>0.08540905547844746</v>
+        <v>0.1857805617549593</v>
       </c>
       <c r="K2">
-        <v>1.482904666868933</v>
+        <v>0.5960625391665531</v>
       </c>
       <c r="L2">
-        <v>0.3653642992445754</v>
+        <v>0.3146078491034245</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6436348861600152</v>
+        <v>0.660473036343916</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02920671010402032</v>
+        <v>0.09138973107846482</v>
       </c>
       <c r="E3">
-        <v>0.04830621287682879</v>
+        <v>0.1257938579253786</v>
       </c>
       <c r="F3">
-        <v>1.208706317366406</v>
+        <v>2.237321918419767</v>
       </c>
       <c r="G3">
-        <v>0.9737531031293543</v>
+        <v>1.571585008173258</v>
       </c>
       <c r="H3">
-        <v>0.6877591853265272</v>
+        <v>1.423074462990186</v>
       </c>
       <c r="I3">
-        <v>0.7261034859656448</v>
+        <v>1.493325324341253</v>
       </c>
       <c r="J3">
-        <v>0.08675236174787582</v>
+        <v>0.1864827754605707</v>
       </c>
       <c r="K3">
-        <v>1.286147904835275</v>
+        <v>0.5407404951086505</v>
       </c>
       <c r="L3">
-        <v>0.3207059847208598</v>
+        <v>0.3040251252710533</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5888441721851336</v>
+        <v>0.6471118241173599</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0282217480216822</v>
+        <v>0.09128477558207138</v>
       </c>
       <c r="E4">
-        <v>0.04851105815657197</v>
+        <v>0.1260566787596358</v>
       </c>
       <c r="F4">
-        <v>1.186373808048501</v>
+        <v>2.240303357876243</v>
       </c>
       <c r="G4">
-        <v>0.9505296202712259</v>
+        <v>1.572170734290765</v>
       </c>
       <c r="H4">
-        <v>0.6821830195194281</v>
+        <v>1.426851160199718</v>
       </c>
       <c r="I4">
-        <v>0.7333206678436923</v>
+        <v>1.500151728108172</v>
       </c>
       <c r="J4">
-        <v>0.087615699010819</v>
+        <v>0.1869388829846006</v>
       </c>
       <c r="K4">
-        <v>1.165901612431639</v>
+        <v>0.5069297553352783</v>
       </c>
       <c r="L4">
-        <v>0.2935769829346668</v>
+        <v>0.2976733564793079</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5666020482134115</v>
+        <v>0.6417360114998303</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02782426604425581</v>
+        <v>0.09124589731548483</v>
       </c>
       <c r="E5">
-        <v>0.04860071917108577</v>
+        <v>0.1261685081208199</v>
       </c>
       <c r="F5">
-        <v>1.177773674212077</v>
+        <v>2.241782893658787</v>
       </c>
       <c r="G5">
-        <v>0.9415283116341442</v>
+        <v>1.572626046879037</v>
       </c>
       <c r="H5">
-        <v>0.6801786067827464</v>
+        <v>1.42853937672993</v>
       </c>
       <c r="I5">
-        <v>0.7365291741766313</v>
+        <v>1.503078739061593</v>
       </c>
       <c r="J5">
-        <v>0.08797716669673417</v>
+        <v>0.1871310368908445</v>
       </c>
       <c r="K5">
-        <v>1.117013784522868</v>
+        <v>0.4931916191893038</v>
       </c>
       <c r="L5">
-        <v>0.2825871631636261</v>
+        <v>0.2951218111151661</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5629136252117064</v>
+        <v>0.6408475431730949</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02775849211505133</v>
+        <v>0.09123967728751126</v>
       </c>
       <c r="E6">
-        <v>0.04861597815982588</v>
+        <v>0.1261873631916335</v>
       </c>
       <c r="F6">
-        <v>1.176375133138933</v>
+        <v>2.242044550565666</v>
       </c>
       <c r="G6">
-        <v>0.9400608181013439</v>
+        <v>1.572714730422675</v>
       </c>
       <c r="H6">
-        <v>0.6798616116432186</v>
+        <v>1.428828715653765</v>
       </c>
       <c r="I6">
-        <v>0.7370778399086184</v>
+        <v>1.503573537501662</v>
       </c>
       <c r="J6">
-        <v>0.08803776987917922</v>
+        <v>0.1871633239844546</v>
       </c>
       <c r="K6">
-        <v>1.108902065726028</v>
+        <v>0.4909128432373677</v>
       </c>
       <c r="L6">
-        <v>0.2807660469581066</v>
+        <v>0.2947003583538645</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5885438745071667</v>
+        <v>0.6470390440406959</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02821637201282456</v>
+        <v>0.09128423546953712</v>
       </c>
       <c r="E7">
-        <v>0.04851224243713714</v>
+        <v>0.1260581677709847</v>
       </c>
       <c r="F7">
-        <v>1.186255829993407</v>
+        <v>2.240322240100994</v>
       </c>
       <c r="G7">
-        <v>0.9504063877579796</v>
+        <v>1.572175997893879</v>
       </c>
       <c r="H7">
-        <v>0.6821549182199789</v>
+        <v>1.426873323978398</v>
       </c>
       <c r="I7">
-        <v>0.7333628676929784</v>
+        <v>1.500190614866067</v>
       </c>
       <c r="J7">
-        <v>0.08762053486614829</v>
+        <v>0.1869414489677146</v>
       </c>
       <c r="K7">
-        <v>1.165241870349291</v>
+        <v>0.5067443153664328</v>
       </c>
       <c r="L7">
-        <v>0.2934285152722538</v>
+        <v>0.2976387960704301</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7024241222428884</v>
+        <v>0.6749651416974132</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03027186990017583</v>
+        <v>0.09151497341321857</v>
       </c>
       <c r="E8">
-        <v>0.04810903778884912</v>
+        <v>0.1255295307754025</v>
       </c>
       <c r="F8">
-        <v>1.234320373140335</v>
+        <v>2.235044684244045</v>
       </c>
       <c r="G8">
-        <v>1.000191377519414</v>
+        <v>1.571700874042776</v>
       </c>
       <c r="H8">
-        <v>0.6946596358160519</v>
+        <v>1.419554153879446</v>
       </c>
       <c r="I8">
-        <v>0.7193417882152211</v>
+        <v>1.486537127620256</v>
       </c>
       <c r="J8">
-        <v>0.08586420264172778</v>
+        <v>0.1860175158460984</v>
       </c>
       <c r="K8">
-        <v>1.414928534912804</v>
+        <v>0.5769551369615158</v>
       </c>
       <c r="L8">
-        <v>0.3499007787187622</v>
+        <v>0.3109286789628811</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9293097195977111</v>
+        <v>0.7318715974087979</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03444901881881179</v>
+        <v>0.09208876202869476</v>
       </c>
       <c r="E9">
-        <v>0.04752145496772764</v>
+        <v>0.1246411640642169</v>
       </c>
       <c r="F9">
-        <v>1.346428277257218</v>
+        <v>2.233042500096118</v>
       </c>
       <c r="G9">
-        <v>1.114577038857092</v>
+        <v>1.577618097182224</v>
       </c>
       <c r="H9">
-        <v>0.7286154257766668</v>
+        <v>1.409905272998103</v>
       </c>
       <c r="I9">
-        <v>0.7010094947290852</v>
+        <v>1.464341783530983</v>
       </c>
       <c r="J9">
-        <v>0.08272781096805848</v>
+        <v>0.1844029917320003</v>
       </c>
       <c r="K9">
-        <v>1.910413495990952</v>
+        <v>0.7158720901717004</v>
       </c>
       <c r="L9">
-        <v>0.4633365922980062</v>
+        <v>0.338145395119426</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.098981646826985</v>
+        <v>0.7749683489082884</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03762985930870144</v>
+        <v>0.09258325248898558</v>
       </c>
       <c r="E10">
-        <v>0.04722109505819638</v>
+        <v>0.1240781788812662</v>
       </c>
       <c r="F10">
-        <v>1.441541456359502</v>
+        <v>2.236663615438204</v>
       </c>
       <c r="G10">
-        <v>1.210793540369693</v>
+        <v>1.586155990619929</v>
       </c>
       <c r="H10">
-        <v>0.7602020321637895</v>
+        <v>1.405683061254621</v>
       </c>
       <c r="I10">
-        <v>0.6937746899909527</v>
+        <v>1.450824846720771</v>
       </c>
       <c r="J10">
-        <v>0.08061407342152238</v>
+        <v>0.1833362052811658</v>
       </c>
       <c r="K10">
-        <v>2.280115448009667</v>
+        <v>0.8186790119964655</v>
       </c>
       <c r="L10">
-        <v>0.5488987836932608</v>
+        <v>0.358843392535519</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.177011817659178</v>
+        <v>0.7948500636063898</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03910699257248496</v>
+        <v>0.09282383761232893</v>
       </c>
       <c r="E11">
-        <v>0.04711488208934167</v>
+        <v>0.123841391742566</v>
       </c>
       <c r="F11">
-        <v>1.488030009024399</v>
+        <v>2.239417661314434</v>
       </c>
       <c r="G11">
-        <v>1.257684825343915</v>
+        <v>1.590953506540416</v>
       </c>
       <c r="H11">
-        <v>0.7762288188304467</v>
+        <v>1.404384703262735</v>
       </c>
       <c r="I11">
-        <v>0.6919931608125225</v>
+        <v>1.445281172546245</v>
       </c>
       <c r="J11">
-        <v>0.07969461737746486</v>
+        <v>0.1828766374303228</v>
       </c>
       <c r="K11">
-        <v>2.450046515730435</v>
+        <v>0.8656093924886648</v>
       </c>
       <c r="L11">
-        <v>0.5884463174053849</v>
+        <v>0.3684115142327187</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.206698785523173</v>
+        <v>0.8024181390495073</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0396712230572227</v>
+        <v>0.09291717125560339</v>
       </c>
       <c r="E12">
-        <v>0.04707921800588188</v>
+        <v>0.1237544928762064</v>
       </c>
       <c r="F12">
-        <v>1.506138179866767</v>
+        <v>2.240619727145798</v>
       </c>
       <c r="G12">
-        <v>1.275933571834116</v>
+        <v>1.592901800530399</v>
       </c>
       <c r="H12">
-        <v>0.7825558062910147</v>
+        <v>1.403982519841691</v>
       </c>
       <c r="I12">
-        <v>0.6915498456442606</v>
+        <v>1.443268943143103</v>
       </c>
       <c r="J12">
-        <v>0.07935257289049735</v>
+        <v>0.1827062954606182</v>
       </c>
       <c r="K12">
-        <v>2.514693120761024</v>
+        <v>0.8834038343643726</v>
       </c>
       <c r="L12">
-        <v>0.6035244955652672</v>
+        <v>0.3720565604266994</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.200298713432232</v>
+        <v>0.8007864785726326</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03954948003006109</v>
+        <v>0.0928969713471588</v>
       </c>
       <c r="E13">
-        <v>0.04708669313605274</v>
+        <v>0.1237730851936476</v>
       </c>
       <c r="F13">
-        <v>1.50221516110102</v>
+        <v>2.240353761464846</v>
       </c>
       <c r="G13">
-        <v>1.271980768311437</v>
+        <v>1.592476345268977</v>
       </c>
       <c r="H13">
-        <v>0.7811813720424823</v>
+        <v>1.404065157990175</v>
       </c>
       <c r="I13">
-        <v>0.6916347948496622</v>
+        <v>1.443698441538267</v>
       </c>
       <c r="J13">
-        <v>0.07942596411514558</v>
+        <v>0.1827428178863191</v>
       </c>
       <c r="K13">
-        <v>2.50075632337186</v>
+        <v>0.8795704714400472</v>
       </c>
       <c r="L13">
-        <v>0.6002723752815058</v>
+        <v>0.3712705666231386</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.179451301250083</v>
+        <v>0.79547190891887</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0391533112154967</v>
+        <v>0.09283147166019035</v>
       </c>
       <c r="E14">
-        <v>0.04711185554994124</v>
+        <v>0.1238341871201465</v>
       </c>
       <c r="F14">
-        <v>1.489509433106335</v>
+        <v>2.239513365936844</v>
       </c>
       <c r="G14">
-        <v>1.259176039502336</v>
+        <v>1.591111155641727</v>
       </c>
       <c r="H14">
-        <v>0.7767440551367315</v>
+        <v>1.404349822236668</v>
       </c>
       <c r="I14">
-        <v>0.6919519675465651</v>
+        <v>1.44511388078304</v>
       </c>
       <c r="J14">
-        <v>0.07966635375093478</v>
+        <v>0.1828625494806029</v>
       </c>
       <c r="K14">
-        <v>2.455358795653581</v>
+        <v>0.8670728953984792</v>
       </c>
       <c r="L14">
-        <v>0.5896846805850799</v>
+        <v>0.3687109580493342</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.166700243643788</v>
+        <v>0.7922216849898973</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03891129784758363</v>
+        <v>0.09279164095276116</v>
       </c>
       <c r="E15">
-        <v>0.04712786738934938</v>
+        <v>0.1238719738847216</v>
       </c>
       <c r="F15">
-        <v>1.481793707655527</v>
+        <v>2.23901932827637</v>
       </c>
       <c r="G15">
-        <v>1.251398193058094</v>
+        <v>1.590292079148384</v>
       </c>
       <c r="H15">
-        <v>0.774060278631481</v>
+        <v>1.404535839332084</v>
       </c>
       <c r="I15">
-        <v>0.6921768105857495</v>
+        <v>1.445992213504567</v>
       </c>
       <c r="J15">
-        <v>0.0798144006649153</v>
+        <v>0.1829363682657583</v>
       </c>
       <c r="K15">
-        <v>2.427591647478266</v>
+        <v>0.8594207396061222</v>
       </c>
       <c r="L15">
-        <v>0.5832131358858703</v>
+        <v>0.3671459600642493</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.093900631983274</v>
+        <v>0.7736745589358804</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03753397638281797</v>
+        <v>0.09256784270022322</v>
       </c>
       <c r="E16">
-        <v>0.04722866357429911</v>
+        <v>0.124094041292298</v>
       </c>
       <c r="F16">
-        <v>1.438571545488188</v>
+        <v>2.236505904577797</v>
       </c>
       <c r="G16">
-        <v>1.207795507867388</v>
+        <v>1.585860862985399</v>
       </c>
       <c r="H16">
-        <v>0.7591896416362545</v>
+        <v>1.405780433815437</v>
       </c>
       <c r="I16">
-        <v>0.6939226850355524</v>
+        <v>1.451199318487625</v>
       </c>
       <c r="J16">
-        <v>0.08067501574449953</v>
+        <v>0.1833667556251517</v>
       </c>
       <c r="K16">
-        <v>2.269049102664013</v>
+        <v>0.8156152371758481</v>
       </c>
       <c r="L16">
-        <v>0.5463278800471585</v>
+        <v>0.3582211514109588</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049468691572059</v>
+        <v>0.7623670327594141</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03669711976015222</v>
+        <v>0.09243454120316841</v>
       </c>
       <c r="E17">
-        <v>0.04729841364497966</v>
+        <v>0.1242352126144901</v>
       </c>
       <c r="F17">
-        <v>1.412909108509581</v>
+        <v>2.235247484189458</v>
       </c>
       <c r="G17">
-        <v>1.181875811575637</v>
+        <v>1.583376593366737</v>
       </c>
       <c r="H17">
-        <v>0.7505050327975908</v>
+        <v>1.406703338483155</v>
       </c>
       <c r="I17">
-        <v>0.6953901426569047</v>
+        <v>1.454548731276937</v>
       </c>
       <c r="J17">
-        <v>0.08121381087647017</v>
+        <v>0.1836373629854042</v>
       </c>
       <c r="K17">
-        <v>2.172268202015289</v>
+        <v>0.7887833608361632</v>
       </c>
       <c r="L17">
-        <v>0.5238685955546885</v>
+        <v>0.3527850411628322</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.023991102357911</v>
+        <v>0.7558893249049561</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03621858453242055</v>
+        <v>0.09235934287135805</v>
       </c>
       <c r="E18">
-        <v>0.04734138349284178</v>
+        <v>0.1243182295203429</v>
       </c>
       <c r="F18">
-        <v>1.398449303835122</v>
+        <v>2.234627848740942</v>
       </c>
       <c r="G18">
-        <v>1.16725854959347</v>
+        <v>1.582033685818246</v>
       </c>
       <c r="H18">
-        <v>0.7456646557053261</v>
+        <v>1.407292748008743</v>
       </c>
       <c r="I18">
-        <v>0.6963753611955781</v>
+        <v>1.456532193367423</v>
       </c>
       <c r="J18">
-        <v>0.08152766831040759</v>
+        <v>0.1837954306487886</v>
       </c>
       <c r="K18">
-        <v>2.116764325373083</v>
+        <v>0.7733657476124165</v>
       </c>
       <c r="L18">
-        <v>0.5110086128315032</v>
+        <v>0.3496726955318508</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.015377811833872</v>
+        <v>0.7537005792418938</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03605702671438493</v>
+        <v>0.09233413562718695</v>
       </c>
       <c r="E19">
-        <v>0.04735641687434056</v>
+        <v>0.1243466503385116</v>
       </c>
       <c r="F19">
-        <v>1.393603894358264</v>
+        <v>2.234435942501392</v>
       </c>
       <c r="G19">
-        <v>1.162358131149304</v>
+        <v>1.581593761027193</v>
       </c>
       <c r="H19">
-        <v>0.7440518007281867</v>
+        <v>1.407502373490757</v>
       </c>
       <c r="I19">
-        <v>0.6967327711345135</v>
+        <v>1.457213543771992</v>
       </c>
       <c r="J19">
-        <v>0.08163461231082958</v>
+        <v>0.1838493658977927</v>
       </c>
       <c r="K19">
-        <v>2.09799815702533</v>
+        <v>0.7681482646196969</v>
       </c>
       <c r="L19">
-        <v>0.5066640413070189</v>
+        <v>0.3486213790929469</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.054190305239928</v>
+        <v>0.7635680424534996</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03678591083072291</v>
+        <v>0.09244857905144599</v>
       </c>
       <c r="E20">
-        <v>0.04729069226462013</v>
+        <v>0.1242199965145794</v>
       </c>
       <c r="F20">
-        <v>1.415609528298162</v>
+        <v>2.235370663391777</v>
       </c>
       <c r="G20">
-        <v>1.184604583003761</v>
+        <v>1.583632148144119</v>
       </c>
       <c r="H20">
-        <v>0.7514133684454265</v>
+        <v>1.406599031097102</v>
       </c>
       <c r="I20">
-        <v>0.6952192186828157</v>
+        <v>1.45418628450377</v>
       </c>
       <c r="J20">
-        <v>0.08115604515513009</v>
+        <v>0.1836083058439797</v>
       </c>
       <c r="K20">
-        <v>2.182553617198522</v>
+        <v>0.7916380726298939</v>
       </c>
       <c r="L20">
-        <v>0.5262533342009306</v>
+        <v>0.353362238943248</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.185570786176015</v>
+        <v>0.7970318641898189</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03926953878801243</v>
+        <v>0.0928506501583044</v>
       </c>
       <c r="E21">
-        <v>0.04710433952567072</v>
+        <v>0.1238161649837037</v>
       </c>
       <c r="F21">
-        <v>1.493227393881085</v>
+        <v>2.239755890571018</v>
       </c>
       <c r="G21">
-        <v>1.262923383146443</v>
+        <v>1.591508572271579</v>
       </c>
       <c r="H21">
-        <v>0.7780402363460439</v>
+        <v>1.40426378120344</v>
       </c>
       <c r="I21">
-        <v>0.6918524093508651</v>
+        <v>1.444695769685822</v>
       </c>
       <c r="J21">
-        <v>0.07959557833599473</v>
+        <v>0.1828272814556076</v>
       </c>
       <c r="K21">
-        <v>2.468684696197414</v>
+        <v>0.8707431183099459</v>
       </c>
       <c r="L21">
-        <v>0.5927916591793974</v>
+        <v>0.3694621862955074</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.272252546467314</v>
+        <v>0.8191312559575863</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04092142688264033</v>
+        <v>0.09312641193369942</v>
       </c>
       <c r="E22">
-        <v>0.0470092056467406</v>
+        <v>0.1235683627468207</v>
       </c>
       <c r="F22">
-        <v>1.54691411238457</v>
+        <v>2.243549652590858</v>
       </c>
       <c r="G22">
-        <v>1.316999936908815</v>
+        <v>1.597423308682835</v>
       </c>
       <c r="H22">
-        <v>0.796956543284324</v>
+        <v>1.4032590914656</v>
       </c>
       <c r="I22">
-        <v>0.691007722989248</v>
+        <v>1.439000506531109</v>
       </c>
       <c r="J22">
-        <v>0.07861151856780424</v>
+        <v>0.1823383185902896</v>
       </c>
       <c r="K22">
-        <v>2.657445431660506</v>
+        <v>0.9225762297484152</v>
       </c>
       <c r="L22">
-        <v>0.6368816998596998</v>
+        <v>0.3801114792474181</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.225908096368329</v>
+        <v>0.8073156192964177</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0400369639123781</v>
+        <v>0.09297805094447043</v>
       </c>
       <c r="E23">
-        <v>0.04705747551151429</v>
+        <v>0.123699147491048</v>
       </c>
       <c r="F23">
-        <v>1.517975367729122</v>
+        <v>2.241439955138461</v>
       </c>
       <c r="G23">
-        <v>1.287858537258586</v>
+        <v>1.594196250333738</v>
       </c>
       <c r="H23">
-        <v>0.7867150908385838</v>
+        <v>1.403747598288987</v>
       </c>
       <c r="I23">
-        <v>0.6913294898496503</v>
+        <v>1.441993752300661</v>
       </c>
       <c r="J23">
-        <v>0.07913342535896239</v>
+        <v>0.182597325600538</v>
       </c>
       <c r="K23">
-        <v>2.5565233617736</v>
+        <v>0.8948998858202515</v>
       </c>
       <c r="L23">
-        <v>0.613290374670953</v>
+        <v>0.3744161667744095</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.052055456515177</v>
+        <v>0.7630249938565612</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03674576037623112</v>
+        <v>0.09244222805803659</v>
       </c>
       <c r="E24">
-        <v>0.04729417417595405</v>
+        <v>0.1242268699330742</v>
       </c>
       <c r="F24">
-        <v>1.414387756206992</v>
+        <v>2.235314650590297</v>
       </c>
       <c r="G24">
-        <v>1.183370023072641</v>
+        <v>1.583516346034784</v>
       </c>
       <c r="H24">
-        <v>0.7510022362934023</v>
+        <v>1.406646005238414</v>
       </c>
       <c r="I24">
-        <v>0.6952960535532782</v>
+        <v>1.454349966516681</v>
       </c>
       <c r="J24">
-        <v>0.08118214828268755</v>
+        <v>0.1836214348150838</v>
       </c>
       <c r="K24">
-        <v>2.177903158431292</v>
+        <v>0.7903474312589367</v>
       </c>
       <c r="L24">
-        <v>0.5251750323291162</v>
+        <v>0.3531012474912387</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8674698412171438</v>
+        <v>0.7162494108791577</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03330113120216538</v>
+        <v>0.09192065697177298</v>
       </c>
       <c r="E25">
-        <v>0.04765793979608812</v>
+        <v>0.1248656884857331</v>
       </c>
       <c r="F25">
-        <v>1.314004774613963</v>
+        <v>2.232690170561753</v>
       </c>
       <c r="G25">
-        <v>1.081645148194127</v>
+        <v>1.575282533544964</v>
       </c>
       <c r="H25">
-        <v>0.7183319225997167</v>
+        <v>1.412012048700802</v>
       </c>
       <c r="I25">
-        <v>0.7049238396304531</v>
+        <v>1.469856150917153</v>
       </c>
       <c r="J25">
-        <v>0.08354305637733939</v>
+        <v>0.1848187315557701</v>
       </c>
       <c r="K25">
-        <v>1.775538272486472</v>
+        <v>0.6781600846897504</v>
       </c>
       <c r="L25">
-        <v>0.4323037569056254</v>
+        <v>0.3306591244382844</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6826774943282885</v>
+        <v>0.7334935455090204</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09158574049555668</v>
+        <v>0.03083795207118811</v>
       </c>
       <c r="E2">
-        <v>0.1253963583736044</v>
+        <v>0.04801328218356637</v>
       </c>
       <c r="F2">
-        <v>2.234179487570046</v>
+        <v>1.24848727860288</v>
       </c>
       <c r="G2">
-        <v>1.572035072809442</v>
+        <v>1.01474695804869</v>
       </c>
       <c r="H2">
-        <v>1.417889399802348</v>
+        <v>0.6986556024235568</v>
       </c>
       <c r="I2">
-        <v>1.483147664041056</v>
+        <v>0.7161404356667767</v>
       </c>
       <c r="J2">
-        <v>0.1857805617549593</v>
+        <v>0.08540905547850541</v>
       </c>
       <c r="K2">
-        <v>0.5960625391665531</v>
+        <v>1.48290466686899</v>
       </c>
       <c r="L2">
-        <v>0.3146078491034245</v>
+        <v>0.3653642992446464</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.660473036343916</v>
+        <v>0.6436348861601857</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09138973107846482</v>
+        <v>0.02920671010389597</v>
       </c>
       <c r="E3">
-        <v>0.1257938579253786</v>
+        <v>0.04830621287682479</v>
       </c>
       <c r="F3">
-        <v>2.237321918419767</v>
+        <v>1.208706317366364</v>
       </c>
       <c r="G3">
-        <v>1.571585008173258</v>
+        <v>0.9737531031293685</v>
       </c>
       <c r="H3">
-        <v>1.423074462990186</v>
+        <v>0.6877591853266125</v>
       </c>
       <c r="I3">
-        <v>1.493325324341253</v>
+        <v>0.7261034859656377</v>
       </c>
       <c r="J3">
-        <v>0.1864827754605707</v>
+        <v>0.0867523617479562</v>
       </c>
       <c r="K3">
-        <v>0.5407404951086505</v>
+        <v>1.286147904835303</v>
       </c>
       <c r="L3">
-        <v>0.3040251252710533</v>
+        <v>0.3207059847208455</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6471118241173599</v>
+        <v>0.5888441721853042</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09128477558207138</v>
+        <v>0.0282217480215543</v>
       </c>
       <c r="E4">
-        <v>0.1260566787596358</v>
+        <v>0.0485110581565551</v>
       </c>
       <c r="F4">
-        <v>2.240303357876243</v>
+        <v>1.186373808048508</v>
       </c>
       <c r="G4">
-        <v>1.572170734290765</v>
+        <v>0.9505296202712543</v>
       </c>
       <c r="H4">
-        <v>1.426851160199718</v>
+        <v>0.6821830195195844</v>
       </c>
       <c r="I4">
-        <v>1.500151728108172</v>
+        <v>0.7333206678436852</v>
       </c>
       <c r="J4">
-        <v>0.1869388829846006</v>
+        <v>0.08761569901080191</v>
       </c>
       <c r="K4">
-        <v>0.5069297553352783</v>
+        <v>1.165901612431725</v>
       </c>
       <c r="L4">
-        <v>0.2976733564793079</v>
+        <v>0.2935769829347521</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6417360114998303</v>
+        <v>0.56660204821344</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09124589731548483</v>
+        <v>0.0278242660441208</v>
       </c>
       <c r="E5">
-        <v>0.1261685081208199</v>
+        <v>0.04860071917108089</v>
       </c>
       <c r="F5">
-        <v>2.241782893658787</v>
+        <v>1.177773674212105</v>
       </c>
       <c r="G5">
-        <v>1.572626046879037</v>
+        <v>0.9415283116341584</v>
       </c>
       <c r="H5">
-        <v>1.42853937672993</v>
+        <v>0.6801786067827322</v>
       </c>
       <c r="I5">
-        <v>1.503078739061593</v>
+        <v>0.736529174176642</v>
       </c>
       <c r="J5">
-        <v>0.1871310368908445</v>
+        <v>0.08797716669667577</v>
       </c>
       <c r="K5">
-        <v>0.4931916191893038</v>
+        <v>1.117013784522726</v>
       </c>
       <c r="L5">
-        <v>0.2951218111151661</v>
+        <v>0.2825871631636261</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6408475431730949</v>
+        <v>0.5629136252117917</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09123967728751126</v>
+        <v>0.02775849211505133</v>
       </c>
       <c r="E6">
-        <v>0.1261873631916335</v>
+        <v>0.04861597815982677</v>
       </c>
       <c r="F6">
-        <v>2.242044550565666</v>
+        <v>1.176375133138926</v>
       </c>
       <c r="G6">
-        <v>1.572714730422675</v>
+        <v>0.9400608181013581</v>
       </c>
       <c r="H6">
-        <v>1.428828715653765</v>
+        <v>0.6798616116430907</v>
       </c>
       <c r="I6">
-        <v>1.503573537501662</v>
+        <v>0.7370778399086184</v>
       </c>
       <c r="J6">
-        <v>0.1871633239844546</v>
+        <v>0.08803776987902379</v>
       </c>
       <c r="K6">
-        <v>0.4909128432373677</v>
+        <v>1.108902065726056</v>
       </c>
       <c r="L6">
-        <v>0.2947003583538645</v>
+        <v>0.280766046958064</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6470390440406959</v>
+        <v>0.588543874507053</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09128423546953712</v>
+        <v>0.02821637201282456</v>
       </c>
       <c r="E7">
-        <v>0.1260581677709847</v>
+        <v>0.04851224243713759</v>
       </c>
       <c r="F7">
-        <v>2.240322240100994</v>
+        <v>1.186255829993407</v>
       </c>
       <c r="G7">
-        <v>1.572175997893879</v>
+        <v>0.9504063877579796</v>
       </c>
       <c r="H7">
-        <v>1.426873323978398</v>
+        <v>0.682154918219851</v>
       </c>
       <c r="I7">
-        <v>1.500190614866067</v>
+        <v>0.7333628676929855</v>
       </c>
       <c r="J7">
-        <v>0.1869414489677146</v>
+        <v>0.08762053486620691</v>
       </c>
       <c r="K7">
-        <v>0.5067443153664328</v>
+        <v>1.165241870349263</v>
       </c>
       <c r="L7">
-        <v>0.2976387960704301</v>
+        <v>0.2934285152722111</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6749651416974132</v>
+        <v>0.7024241222430021</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09151497341321857</v>
+        <v>0.03027186990012254</v>
       </c>
       <c r="E8">
-        <v>0.1255295307754025</v>
+        <v>0.04810903778884867</v>
       </c>
       <c r="F8">
-        <v>2.235044684244045</v>
+        <v>1.234320373140335</v>
       </c>
       <c r="G8">
-        <v>1.571700874042776</v>
+        <v>1.0001913775194</v>
       </c>
       <c r="H8">
-        <v>1.419554153879446</v>
+        <v>0.6946596358160519</v>
       </c>
       <c r="I8">
-        <v>1.486537127620256</v>
+        <v>0.7193417882152175</v>
       </c>
       <c r="J8">
-        <v>0.1860175158460984</v>
+        <v>0.08586420264166938</v>
       </c>
       <c r="K8">
-        <v>0.5769551369615158</v>
+        <v>1.414928534912775</v>
       </c>
       <c r="L8">
-        <v>0.3109286789628811</v>
+        <v>0.3499007787187765</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7318715974087979</v>
+        <v>0.9293097195975122</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09208876202869476</v>
+        <v>0.03444901881856666</v>
       </c>
       <c r="E9">
-        <v>0.1246411640642169</v>
+        <v>0.04752145496774052</v>
       </c>
       <c r="F9">
-        <v>2.233042500096118</v>
+        <v>1.346428277257203</v>
       </c>
       <c r="G9">
-        <v>1.577618097182224</v>
+        <v>1.114577038857107</v>
       </c>
       <c r="H9">
-        <v>1.409905272998103</v>
+        <v>0.7286154257767805</v>
       </c>
       <c r="I9">
-        <v>1.464341783530983</v>
+        <v>0.7010094947290852</v>
       </c>
       <c r="J9">
-        <v>0.1844029917320003</v>
+        <v>0.0827278109680365</v>
       </c>
       <c r="K9">
-        <v>0.7158720901717004</v>
+        <v>1.910413495990923</v>
       </c>
       <c r="L9">
-        <v>0.338145395119426</v>
+        <v>0.4633365922978783</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7749683489082884</v>
+        <v>1.09898164682707</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09258325248898558</v>
+        <v>0.03762985930880802</v>
       </c>
       <c r="E10">
-        <v>0.1240781788812662</v>
+        <v>0.04722109505820349</v>
       </c>
       <c r="F10">
-        <v>2.236663615438204</v>
+        <v>1.441541456359474</v>
       </c>
       <c r="G10">
-        <v>1.586155990619929</v>
+        <v>1.210793540369693</v>
       </c>
       <c r="H10">
-        <v>1.405683061254621</v>
+        <v>0.7602020321637752</v>
       </c>
       <c r="I10">
-        <v>1.450824846720771</v>
+        <v>0.6937746899909598</v>
       </c>
       <c r="J10">
-        <v>0.1833362052811658</v>
+        <v>0.08061407342147131</v>
       </c>
       <c r="K10">
-        <v>0.8186790119964655</v>
+        <v>2.280115448009781</v>
       </c>
       <c r="L10">
-        <v>0.358843392535519</v>
+        <v>0.5488987836932182</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7948500636063898</v>
+        <v>1.177011817659292</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09282383761232893</v>
+        <v>0.03910699257228245</v>
       </c>
       <c r="E11">
-        <v>0.123841391742566</v>
+        <v>0.04711488208933723</v>
       </c>
       <c r="F11">
-        <v>2.239417661314434</v>
+        <v>1.488030009024413</v>
       </c>
       <c r="G11">
-        <v>1.590953506540416</v>
+        <v>1.257684825343972</v>
       </c>
       <c r="H11">
-        <v>1.404384703262735</v>
+        <v>0.7762288188305888</v>
       </c>
       <c r="I11">
-        <v>1.445281172546245</v>
+        <v>0.6919931608125296</v>
       </c>
       <c r="J11">
-        <v>0.1828766374303228</v>
+        <v>0.0796946173773958</v>
       </c>
       <c r="K11">
-        <v>0.8656093924886648</v>
+        <v>2.450046515730492</v>
       </c>
       <c r="L11">
-        <v>0.3684115142327187</v>
+        <v>0.5884463174054275</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8024181390495073</v>
+        <v>1.206698785523315</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09291717125560339</v>
+        <v>0.03967122305729021</v>
       </c>
       <c r="E12">
-        <v>0.1237544928762064</v>
+        <v>0.04707921800587744</v>
       </c>
       <c r="F12">
-        <v>2.240619727145798</v>
+        <v>1.506138179866767</v>
       </c>
       <c r="G12">
-        <v>1.592901800530399</v>
+        <v>1.275933571834173</v>
       </c>
       <c r="H12">
-        <v>1.403982519841691</v>
+        <v>0.782555806290901</v>
       </c>
       <c r="I12">
-        <v>1.443268943143103</v>
+        <v>0.6915498456442677</v>
       </c>
       <c r="J12">
-        <v>0.1827062954606182</v>
+        <v>0.07935257289054132</v>
       </c>
       <c r="K12">
-        <v>0.8834038343643726</v>
+        <v>2.514693120760995</v>
       </c>
       <c r="L12">
-        <v>0.3720565604266994</v>
+        <v>0.603524495565452</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8007864785726326</v>
+        <v>1.200298713432147</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0928969713471588</v>
+        <v>0.03954948003018544</v>
       </c>
       <c r="E13">
-        <v>0.1237730851936476</v>
+        <v>0.0470866931360554</v>
       </c>
       <c r="F13">
-        <v>2.240353761464846</v>
+        <v>1.502215161101049</v>
       </c>
       <c r="G13">
-        <v>1.592476345268977</v>
+        <v>1.271980768311465</v>
       </c>
       <c r="H13">
-        <v>1.404065157990175</v>
+        <v>0.7811813720423686</v>
       </c>
       <c r="I13">
-        <v>1.443698441538267</v>
+        <v>0.6916347948496835</v>
       </c>
       <c r="J13">
-        <v>0.1827428178863191</v>
+        <v>0.07942596411518643</v>
       </c>
       <c r="K13">
-        <v>0.8795704714400472</v>
+        <v>2.500756323371945</v>
       </c>
       <c r="L13">
-        <v>0.3712705666231386</v>
+        <v>0.6002723752814205</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.79547190891887</v>
+        <v>1.179451301249941</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09283147166019035</v>
+        <v>0.03915331121560683</v>
       </c>
       <c r="E14">
-        <v>0.1238341871201465</v>
+        <v>0.04711185554993769</v>
       </c>
       <c r="F14">
-        <v>2.239513365936844</v>
+        <v>1.489509433106335</v>
       </c>
       <c r="G14">
-        <v>1.591111155641727</v>
+        <v>1.259176039502222</v>
       </c>
       <c r="H14">
-        <v>1.404349822236668</v>
+        <v>0.7767440551367315</v>
       </c>
       <c r="I14">
-        <v>1.44511388078304</v>
+        <v>0.691951967546558</v>
       </c>
       <c r="J14">
-        <v>0.1828625494806029</v>
+        <v>0.07966635375087905</v>
       </c>
       <c r="K14">
-        <v>0.8670728953984792</v>
+        <v>2.455358795653638</v>
       </c>
       <c r="L14">
-        <v>0.3687109580493342</v>
+        <v>0.5896846805849663</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7922216849898973</v>
+        <v>1.166700243643561</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09279164095276116</v>
+        <v>0.03891129784767955</v>
       </c>
       <c r="E15">
-        <v>0.1238719738847216</v>
+        <v>0.0471278673893476</v>
       </c>
       <c r="F15">
-        <v>2.23901932827637</v>
+        <v>1.481793707655513</v>
       </c>
       <c r="G15">
-        <v>1.590292079148384</v>
+        <v>1.251398193058122</v>
       </c>
       <c r="H15">
-        <v>1.404535839332084</v>
+        <v>0.7740602786313673</v>
       </c>
       <c r="I15">
-        <v>1.445992213504567</v>
+        <v>0.6921768105857637</v>
       </c>
       <c r="J15">
-        <v>0.1829363682657583</v>
+        <v>0.0798144006649677</v>
       </c>
       <c r="K15">
-        <v>0.8594207396061222</v>
+        <v>2.427591647478323</v>
       </c>
       <c r="L15">
-        <v>0.3671459600642493</v>
+        <v>0.5832131358857282</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7736745589358804</v>
+        <v>1.093900631983274</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09256784270022322</v>
+        <v>0.03753397638269718</v>
       </c>
       <c r="E16">
-        <v>0.124094041292298</v>
+        <v>0.04722866357433109</v>
       </c>
       <c r="F16">
-        <v>2.236505904577797</v>
+        <v>1.438571545488188</v>
       </c>
       <c r="G16">
-        <v>1.585860862985399</v>
+        <v>1.207795507867388</v>
       </c>
       <c r="H16">
-        <v>1.405780433815437</v>
+        <v>0.7591896416362545</v>
       </c>
       <c r="I16">
-        <v>1.451199318487625</v>
+        <v>0.6939226850355453</v>
       </c>
       <c r="J16">
-        <v>0.1833667556251517</v>
+        <v>0.08067501574453417</v>
       </c>
       <c r="K16">
-        <v>0.8156152371758481</v>
+        <v>2.269049102663899</v>
       </c>
       <c r="L16">
-        <v>0.3582211514109588</v>
+        <v>0.5463278800471727</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7623670327594141</v>
+        <v>1.049468691572002</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09243454120316841</v>
+        <v>0.03669711976014511</v>
       </c>
       <c r="E17">
-        <v>0.1242352126144901</v>
+        <v>0.047298413644977</v>
       </c>
       <c r="F17">
-        <v>2.235247484189458</v>
+        <v>1.412909108509567</v>
       </c>
       <c r="G17">
-        <v>1.583376593366737</v>
+        <v>1.181875811575665</v>
       </c>
       <c r="H17">
-        <v>1.406703338483155</v>
+        <v>0.7505050327975908</v>
       </c>
       <c r="I17">
-        <v>1.454548731276937</v>
+        <v>0.695390142656926</v>
       </c>
       <c r="J17">
-        <v>0.1836373629854042</v>
+        <v>0.08121381087650326</v>
       </c>
       <c r="K17">
-        <v>0.7887833608361632</v>
+        <v>2.172268202015232</v>
       </c>
       <c r="L17">
-        <v>0.3527850411628322</v>
+        <v>0.5238685955546032</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7558893249049561</v>
+        <v>1.023991102358025</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09235934287135805</v>
+        <v>0.03621858453230331</v>
       </c>
       <c r="E18">
-        <v>0.1243182295203429</v>
+        <v>0.04734138349282313</v>
       </c>
       <c r="F18">
-        <v>2.234627848740942</v>
+        <v>1.398449303835136</v>
       </c>
       <c r="G18">
-        <v>1.582033685818246</v>
+        <v>1.167258549593484</v>
       </c>
       <c r="H18">
-        <v>1.407292748008743</v>
+        <v>0.7456646557051982</v>
       </c>
       <c r="I18">
-        <v>1.456532193367423</v>
+        <v>0.6963753611955852</v>
       </c>
       <c r="J18">
-        <v>0.1837954306487886</v>
+        <v>0.08152766831047331</v>
       </c>
       <c r="K18">
-        <v>0.7733657476124165</v>
+        <v>2.116764325372941</v>
       </c>
       <c r="L18">
-        <v>0.3496726955318508</v>
+        <v>0.5110086128315174</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7537005792418938</v>
+        <v>1.015377811833758</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09233413562718695</v>
+        <v>0.03605702671437427</v>
       </c>
       <c r="E19">
-        <v>0.1243466503385116</v>
+        <v>0.04735641687435121</v>
       </c>
       <c r="F19">
-        <v>2.234435942501392</v>
+        <v>1.39360389435825</v>
       </c>
       <c r="G19">
-        <v>1.581593761027193</v>
+        <v>1.162358131149233</v>
       </c>
       <c r="H19">
-        <v>1.407502373490757</v>
+        <v>0.7440518007283146</v>
       </c>
       <c r="I19">
-        <v>1.457213543771992</v>
+        <v>0.6967327711345135</v>
       </c>
       <c r="J19">
-        <v>0.1838493658977927</v>
+        <v>0.0816346123107754</v>
       </c>
       <c r="K19">
-        <v>0.7681482646196969</v>
+        <v>2.097998157025273</v>
       </c>
       <c r="L19">
-        <v>0.3486213790929469</v>
+        <v>0.5066640413069479</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7635680424534996</v>
+        <v>1.05419030524007</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09244857905144599</v>
+        <v>0.03678591083059857</v>
       </c>
       <c r="E20">
-        <v>0.1242199965145794</v>
+        <v>0.04729069226461391</v>
       </c>
       <c r="F20">
-        <v>2.235370663391777</v>
+        <v>1.415609528298148</v>
       </c>
       <c r="G20">
-        <v>1.583632148144119</v>
+        <v>1.184604583003761</v>
       </c>
       <c r="H20">
-        <v>1.406599031097102</v>
+        <v>0.7514133684454265</v>
       </c>
       <c r="I20">
-        <v>1.45418628450377</v>
+        <v>0.6952192186828086</v>
       </c>
       <c r="J20">
-        <v>0.1836083058439797</v>
+        <v>0.08115604515507369</v>
       </c>
       <c r="K20">
-        <v>0.7916380726298939</v>
+        <v>2.182553617198494</v>
       </c>
       <c r="L20">
-        <v>0.353362238943248</v>
+        <v>0.5262533342009874</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7970318641898189</v>
+        <v>1.185570786175987</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0928506501583044</v>
+        <v>0.03926953878789519</v>
       </c>
       <c r="E21">
-        <v>0.1238161649837037</v>
+        <v>0.04710433952566806</v>
       </c>
       <c r="F21">
-        <v>2.239755890571018</v>
+        <v>1.493227393881071</v>
       </c>
       <c r="G21">
-        <v>1.591508572271579</v>
+        <v>1.262923383146386</v>
       </c>
       <c r="H21">
-        <v>1.40426378120344</v>
+        <v>0.7780402363460439</v>
       </c>
       <c r="I21">
-        <v>1.444695769685822</v>
+        <v>0.6918524093509006</v>
       </c>
       <c r="J21">
-        <v>0.1828272814556076</v>
+        <v>0.07959557833598296</v>
       </c>
       <c r="K21">
-        <v>0.8707431183099459</v>
+        <v>2.468684696197471</v>
       </c>
       <c r="L21">
-        <v>0.3694621862955074</v>
+        <v>0.5927916591793974</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8191312559575863</v>
+        <v>1.272252546467286</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09312641193369942</v>
+        <v>0.04092142688264033</v>
       </c>
       <c r="E22">
-        <v>0.1235683627468207</v>
+        <v>0.04700920564672284</v>
       </c>
       <c r="F22">
-        <v>2.243549652590858</v>
+        <v>1.546914112384599</v>
       </c>
       <c r="G22">
-        <v>1.597423308682835</v>
+        <v>1.316999936908843</v>
       </c>
       <c r="H22">
-        <v>1.4032590914656</v>
+        <v>0.796956543284324</v>
       </c>
       <c r="I22">
-        <v>1.439000506531109</v>
+        <v>0.6910077229892408</v>
       </c>
       <c r="J22">
-        <v>0.1823383185902896</v>
+        <v>0.07861151856768167</v>
       </c>
       <c r="K22">
-        <v>0.9225762297484152</v>
+        <v>2.657445431660591</v>
       </c>
       <c r="L22">
-        <v>0.3801114792474181</v>
+        <v>0.6368816998596856</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8073156192964177</v>
+        <v>1.225908096368215</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09297805094447043</v>
+        <v>0.04003696391244205</v>
       </c>
       <c r="E23">
-        <v>0.123699147491048</v>
+        <v>0.04705747551149209</v>
       </c>
       <c r="F23">
-        <v>2.241439955138461</v>
+        <v>1.517975367729122</v>
       </c>
       <c r="G23">
-        <v>1.594196250333738</v>
+        <v>1.287858537258558</v>
       </c>
       <c r="H23">
-        <v>1.403747598288987</v>
+        <v>0.7867150908385838</v>
       </c>
       <c r="I23">
-        <v>1.441993752300661</v>
+        <v>0.691329489849636</v>
       </c>
       <c r="J23">
-        <v>0.182597325600538</v>
+        <v>0.07913342535899126</v>
       </c>
       <c r="K23">
-        <v>0.8948998858202515</v>
+        <v>2.556523361773571</v>
       </c>
       <c r="L23">
-        <v>0.3744161667744095</v>
+        <v>0.6132903746710099</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7630249938565612</v>
+        <v>1.052055456515177</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09244222805803659</v>
+        <v>0.03674576037662192</v>
       </c>
       <c r="E24">
-        <v>0.1242268699330742</v>
+        <v>0.04729417417595272</v>
       </c>
       <c r="F24">
-        <v>2.235314650590297</v>
+        <v>1.414387756206978</v>
       </c>
       <c r="G24">
-        <v>1.583516346034784</v>
+        <v>1.183370023072641</v>
       </c>
       <c r="H24">
-        <v>1.406646005238414</v>
+        <v>0.7510022362934734</v>
       </c>
       <c r="I24">
-        <v>1.454349966516681</v>
+        <v>0.6952960535532782</v>
       </c>
       <c r="J24">
-        <v>0.1836214348150838</v>
+        <v>0.0811821482827233</v>
       </c>
       <c r="K24">
-        <v>0.7903474312589367</v>
+        <v>2.17790315843132</v>
       </c>
       <c r="L24">
-        <v>0.3531012474912387</v>
+        <v>0.5251750323291162</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7162494108791577</v>
+        <v>0.8674698412173711</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09192065697177298</v>
+        <v>0.03330113120224709</v>
       </c>
       <c r="E25">
-        <v>0.1248656884857331</v>
+        <v>0.04765793979607569</v>
       </c>
       <c r="F25">
-        <v>2.232690170561753</v>
+        <v>1.314004774613977</v>
       </c>
       <c r="G25">
-        <v>1.575282533544964</v>
+        <v>1.081645148194127</v>
       </c>
       <c r="H25">
-        <v>1.412012048700802</v>
+        <v>0.7183319225998162</v>
       </c>
       <c r="I25">
-        <v>1.469856150917153</v>
+        <v>0.7049238396304602</v>
       </c>
       <c r="J25">
-        <v>0.1848187315557701</v>
+        <v>0.08354305637724413</v>
       </c>
       <c r="K25">
-        <v>0.6781600846897504</v>
+        <v>1.775538272486386</v>
       </c>
       <c r="L25">
-        <v>0.3306591244382844</v>
+        <v>0.4323037569056538</v>
       </c>
       <c r="M25">
         <v>0</v>
